--- a/xlsx/社會主義國家_intext.xlsx
+++ b/xlsx/社會主義國家_intext.xlsx
@@ -29,7 +29,7 @@
     <t>共產主義國家</t>
   </si>
   <si>
-    <t>政策_政策_行政_社會主義國家</t>
+    <t>体育运动_体育运动_苏联_社會主義國家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
@@ -5611,7 +5611,7 @@
         <v>290</v>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
